--- a/src/main/resources/com/example/lab5/names.xlsx
+++ b/src/main/resources/com/example/lab5/names.xlsx
@@ -8,16 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\IdeaProjects\lab5\src\main\resources\com\example\lab5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCF88C75-40B1-41F5-837E-0365B97B7540}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64DBC953-1019-4FCE-B217-B9487F57CB7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17400" yWindow="1020" windowWidth="11112" windowHeight="9684" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="name" sheetId="1" r:id="rId1"/>
-    <sheet name="surname" sheetId="2" r:id="rId2"/>
-    <sheet name="w_surname" sheetId="5" r:id="rId3"/>
+    <sheet name="w_name" sheetId="7" r:id="rId2"/>
+    <sheet name="surname" sheetId="8" r:id="rId3"/>
     <sheet name="prof_surname" sheetId="6" r:id="rId4"/>
-    <sheet name="w_name" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,94 +28,600 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="26">
-  <si>
-    <t>Слава</t>
-  </si>
-  <si>
-    <t>Украинцев</t>
-  </si>
-  <si>
-    <t>vbif</t>
-  </si>
-  <si>
-    <t>давыщы</t>
-  </si>
-  <si>
-    <t>ываыв</t>
-  </si>
-  <si>
-    <t>аыв</t>
-  </si>
-  <si>
-    <t>ы</t>
-  </si>
-  <si>
-    <t>вы</t>
-  </si>
-  <si>
-    <t>ыа</t>
-  </si>
-  <si>
-    <t>sdadas</t>
-  </si>
-  <si>
-    <t>s</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>as</t>
-  </si>
-  <si>
-    <t>sad</t>
-  </si>
-  <si>
-    <t>asd</t>
-  </si>
-  <si>
-    <t>asdf</t>
-  </si>
-  <si>
-    <t>dsf</t>
-  </si>
-  <si>
-    <t>fds</t>
-  </si>
-  <si>
-    <t>sdas</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>wr</t>
-  </si>
-  <si>
-    <t>wer</t>
-  </si>
-  <si>
-    <t>алла</t>
-  </si>
-  <si>
-    <t>слава</t>
-  </si>
-  <si>
-    <t>клава</t>
-  </si>
-  <si>
-    <t>маша</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="190">
+  <si>
+    <t>Андрей</t>
+  </si>
+  <si>
+    <t>Роман</t>
+  </si>
+  <si>
+    <t>Арсений</t>
+  </si>
+  <si>
+    <t>Владислав</t>
+  </si>
+  <si>
+    <t>Никита</t>
+  </si>
+  <si>
+    <t>Глеб</t>
+  </si>
+  <si>
+    <t>Марк</t>
+  </si>
+  <si>
+    <t>Ярослав</t>
+  </si>
+  <si>
+    <t>Евгений</t>
+  </si>
+  <si>
+    <t>Матвей</t>
+  </si>
+  <si>
+    <t>Николай</t>
+  </si>
+  <si>
+    <t>Александр</t>
+  </si>
+  <si>
+    <t>Дмитрий</t>
+  </si>
+  <si>
+    <t>Максим</t>
+  </si>
+  <si>
+    <t>Сергей</t>
+  </si>
+  <si>
+    <t>Алексей</t>
+  </si>
+  <si>
+    <t>Артём</t>
+  </si>
+  <si>
+    <t>Илья</t>
+  </si>
+  <si>
+    <t>Кирилл</t>
+  </si>
+  <si>
+    <t>Михаил</t>
+  </si>
+  <si>
+    <t>Егор</t>
+  </si>
+  <si>
+    <t>Иван</t>
+  </si>
+  <si>
+    <t>Денис</t>
+  </si>
+  <si>
+    <t>Даниил</t>
+  </si>
+  <si>
+    <t>Тимофей</t>
+  </si>
+  <si>
+    <t>Данил</t>
+  </si>
+  <si>
+    <t>Игорь</t>
+  </si>
+  <si>
+    <t>Владимир</t>
+  </si>
+  <si>
+    <t>Павел</t>
+  </si>
+  <si>
+    <t>Руслан</t>
+  </si>
+  <si>
+    <t>Константин</t>
+  </si>
+  <si>
+    <t>Тимур</t>
+  </si>
+  <si>
+    <t>Олег</t>
+  </si>
+  <si>
+    <t>Антон</t>
+  </si>
+  <si>
+    <t>Анастасия</t>
+  </si>
+  <si>
+    <t>Анна</t>
+  </si>
+  <si>
+    <t>Мария</t>
+  </si>
+  <si>
+    <t>Елена</t>
+  </si>
+  <si>
+    <t>Дарья</t>
+  </si>
+  <si>
+    <t>Алина</t>
+  </si>
+  <si>
+    <t>Ирина</t>
+  </si>
+  <si>
+    <t>Екатерина</t>
+  </si>
+  <si>
+    <t>Арина</t>
+  </si>
+  <si>
+    <t>Полина</t>
+  </si>
+  <si>
+    <t>Ольга</t>
+  </si>
+  <si>
+    <t>Юлия</t>
+  </si>
+  <si>
+    <t>Татьяна</t>
+  </si>
+  <si>
+    <t>Наталья</t>
+  </si>
+  <si>
+    <t>Виктория</t>
+  </si>
+  <si>
+    <t>Елизавета</t>
+  </si>
+  <si>
+    <t>Ксения</t>
+  </si>
+  <si>
+    <t>Милана</t>
+  </si>
+  <si>
+    <t>Вероника</t>
+  </si>
+  <si>
+    <t>Алиса</t>
+  </si>
+  <si>
+    <t>Валерия</t>
+  </si>
+  <si>
+    <t>Александра</t>
+  </si>
+  <si>
+    <t>Ульяна</t>
+  </si>
+  <si>
+    <t>Кристина</t>
+  </si>
+  <si>
+    <t>София</t>
+  </si>
+  <si>
+    <t>Марина</t>
+  </si>
+  <si>
+    <t>Светлана</t>
+  </si>
+  <si>
+    <t>Варвара</t>
+  </si>
+  <si>
+    <t>Софья</t>
+  </si>
+  <si>
+    <t>Диана</t>
+  </si>
+  <si>
+    <t>Яна</t>
+  </si>
+  <si>
+    <t>Кира</t>
+  </si>
+  <si>
+    <t>Ангелина</t>
+  </si>
+  <si>
+    <t>Маргарита</t>
+  </si>
+  <si>
+    <t>Иванов</t>
+  </si>
+  <si>
+    <t>Васильев</t>
+  </si>
+  <si>
+    <t>Петров</t>
+  </si>
+  <si>
+    <t>Смирнов</t>
+  </si>
+  <si>
+    <t>Михайлов</t>
+  </si>
+  <si>
+    <t>Фёдоров</t>
+  </si>
+  <si>
+    <t>Соколов</t>
+  </si>
+  <si>
+    <t>Яковлев</t>
+  </si>
+  <si>
+    <t>Попов</t>
+  </si>
+  <si>
+    <t>Андреев</t>
+  </si>
+  <si>
+    <t>Алексеев</t>
+  </si>
+  <si>
+    <t>Александров</t>
+  </si>
+  <si>
+    <t>Лебедев</t>
+  </si>
+  <si>
+    <t>Григорьев</t>
+  </si>
+  <si>
+    <t>Степанов</t>
+  </si>
+  <si>
+    <t>Семёнов</t>
+  </si>
+  <si>
+    <t>Павлов</t>
+  </si>
+  <si>
+    <t>Богданов</t>
+  </si>
+  <si>
+    <t>Николаев</t>
+  </si>
+  <si>
+    <t>Дмитриев</t>
+  </si>
+  <si>
+    <t>Егоров</t>
+  </si>
+  <si>
+    <t>Волков</t>
+  </si>
+  <si>
+    <t>Кузнецов</t>
+  </si>
+  <si>
+    <t>Никитин</t>
+  </si>
+  <si>
+    <t>Соловьёв</t>
+  </si>
+  <si>
+    <t>Тимофеев</t>
+  </si>
+  <si>
+    <t>Орлов</t>
+  </si>
+  <si>
+    <t>Афанасьев</t>
+  </si>
+  <si>
+    <t>Филиппов</t>
+  </si>
+  <si>
+    <t>Сергеев</t>
+  </si>
+  <si>
+    <t>Захаров</t>
+  </si>
+  <si>
+    <t>Матвеев</t>
+  </si>
+  <si>
+    <t>Виноградов</t>
+  </si>
+  <si>
+    <t>Кузьмин</t>
+  </si>
+  <si>
+    <t>Максимов</t>
+  </si>
+  <si>
+    <t>Козлов</t>
+  </si>
+  <si>
+    <t>Ильин</t>
+  </si>
+  <si>
+    <t>Герасимов</t>
+  </si>
+  <si>
+    <t>Марков</t>
+  </si>
+  <si>
+    <t>Новиков</t>
+  </si>
+  <si>
+    <t>Морозов</t>
+  </si>
+  <si>
+    <t>Романов</t>
+  </si>
+  <si>
+    <t>Осипов</t>
+  </si>
+  <si>
+    <t>Макаров</t>
+  </si>
+  <si>
+    <t>Зайцев</t>
+  </si>
+  <si>
+    <t>Беляев</t>
+  </si>
+  <si>
+    <t>Гаврилов</t>
+  </si>
+  <si>
+    <t>Антонов</t>
+  </si>
+  <si>
+    <t>Ефимов</t>
+  </si>
+  <si>
+    <t>Леонтьев</t>
+  </si>
+  <si>
+    <t>Давыдов</t>
+  </si>
+  <si>
+    <t>Гусев</t>
+  </si>
+  <si>
+    <t>Данилов</t>
+  </si>
+  <si>
+    <t>Киселёв</t>
+  </si>
+  <si>
+    <t>Сорокин</t>
+  </si>
+  <si>
+    <t>Тихомиров</t>
+  </si>
+  <si>
+    <t>Крылов</t>
+  </si>
+  <si>
+    <t>Никифоров</t>
+  </si>
+  <si>
+    <t>Кондратьев</t>
+  </si>
+  <si>
+    <t>Кудрявцев</t>
+  </si>
+  <si>
+    <t>Борисов</t>
+  </si>
+  <si>
+    <t>Жуков</t>
+  </si>
+  <si>
+    <t>Воробьёв</t>
+  </si>
+  <si>
+    <t>Щербаков</t>
+  </si>
+  <si>
+    <t>Поляков</t>
+  </si>
+  <si>
+    <t>Савельев</t>
+  </si>
+  <si>
+    <t>Шмидт</t>
+  </si>
+  <si>
+    <t>Трофимов</t>
+  </si>
+  <si>
+    <t>Чистяков</t>
+  </si>
+  <si>
+    <t>Баранов</t>
+  </si>
+  <si>
+    <t>Сидоров</t>
+  </si>
+  <si>
+    <t>Соболев</t>
+  </si>
+  <si>
+    <t>Карпов</t>
+  </si>
+  <si>
+    <t>Белов</t>
+  </si>
+  <si>
+    <t>Миллер</t>
+  </si>
+  <si>
+    <t>Титов</t>
+  </si>
+  <si>
+    <t>Львов</t>
+  </si>
+  <si>
+    <t>Фролов</t>
+  </si>
+  <si>
+    <t>Игнатьев</t>
+  </si>
+  <si>
+    <t>Комаров</t>
+  </si>
+  <si>
+    <t>Прокофьев</t>
+  </si>
+  <si>
+    <t>Быков</t>
+  </si>
+  <si>
+    <t>Абрамов</t>
+  </si>
+  <si>
+    <t>Голубев</t>
+  </si>
+  <si>
+    <t>Пономарёв</t>
+  </si>
+  <si>
+    <t>Покровский</t>
+  </si>
+  <si>
+    <t>Мартынов</t>
+  </si>
+  <si>
+    <t>Кириллов</t>
+  </si>
+  <si>
+    <t>Шульц</t>
+  </si>
+  <si>
+    <t>Миронов</t>
+  </si>
+  <si>
+    <t>Фомин</t>
+  </si>
+  <si>
+    <t>Власов</t>
+  </si>
+  <si>
+    <t>Троицкий</t>
+  </si>
+  <si>
+    <t>Федотов</t>
+  </si>
+  <si>
+    <t>Назаров</t>
+  </si>
+  <si>
+    <t>Ушаков</t>
+  </si>
+  <si>
+    <t>Денисов</t>
+  </si>
+  <si>
+    <t>Константинов</t>
+  </si>
+  <si>
+    <t>Воронин</t>
+  </si>
+  <si>
+    <t>Исаенков</t>
+  </si>
+  <si>
+    <t>Елманов</t>
+  </si>
+  <si>
+    <t>Залужный</t>
+  </si>
+  <si>
+    <t>Бородин</t>
+  </si>
+  <si>
+    <t>Воскобойников</t>
+  </si>
+  <si>
+    <t>Джумаев</t>
+  </si>
+  <si>
+    <t>Иванников</t>
+  </si>
+  <si>
+    <t>Крымский</t>
+  </si>
+  <si>
+    <t>Севрюков</t>
+  </si>
+  <si>
+    <t>Сучков</t>
+  </si>
+  <si>
+    <t>Тенишев</t>
+  </si>
+  <si>
+    <t>Шорников</t>
+  </si>
+  <si>
+    <t>Михальчик</t>
+  </si>
+  <si>
+    <t>Чернов</t>
+  </si>
+  <si>
+    <t>Каражанов</t>
+  </si>
+  <si>
+    <t>Польский</t>
+  </si>
+  <si>
+    <t>Шульга</t>
+  </si>
+  <si>
+    <t>Забусов</t>
+  </si>
+  <si>
+    <t>Кулешов</t>
+  </si>
+  <si>
+    <t>Приходько</t>
+  </si>
+  <si>
+    <t>Стальцов</t>
+  </si>
+  <si>
+    <t>Уманцев</t>
+  </si>
+  <si>
+    <t>Емельянов</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -139,13 +644,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -424,92 +940,917 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A16"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E25" sqref="E25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.33203125" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="1"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="1"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="1"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="1"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="1"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="1"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="1"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="1"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="1"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="1"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="1"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="1"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="1"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="1"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="1"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="1"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="1"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" s="1"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" s="1"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" s="1"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" s="1"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B852D08C-5C17-4285-9708-644DC60BE982}">
+  <dimension ref="A1:A34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2D025C0-91C1-427A-AEAA-0DD6AAAEE668}">
+  <dimension ref="A1:A99"/>
+  <sheetViews>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="A86" sqref="A86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>5</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>7</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>6</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>6</v>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -517,190 +1858,149 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{633DD46E-16C6-489F-827F-18CFE2631B6D}">
-  <dimension ref="A1:A23"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED3B79BE-20B7-4522-B2CF-FD425C0E0EA6}">
+  <dimension ref="A1:A27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>168</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>174</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>175</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>176</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>177</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>178</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>179</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>180</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>181</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>182</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>183</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>184</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>185</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>186</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>21</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F904B21B-EFD9-4704-8014-2B9735EDF30C}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED3B79BE-20B7-4522-B2CF-FD425C0E0EA6}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B852D08C-5C17-4285-9708-644DC60BE982}">
-  <dimension ref="A1:A4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>25</v>
+        <v>187</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/com/example/lab5/names.xlsx
+++ b/src/main/resources/com/example/lab5/names.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\IdeaProjects\lab5\src\main\resources\com\example\lab5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64DBC953-1019-4FCE-B217-B9487F57CB7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{953AB2EE-25FE-46DC-A4A7-727F56E14A5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17400" yWindow="1020" windowWidth="11112" windowHeight="9684" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="name" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="189">
   <si>
     <t>Андрей</t>
   </si>
@@ -79,9 +79,6 @@
   </si>
   <si>
     <t>Артём</t>
-  </si>
-  <si>
-    <t>Илья</t>
   </si>
   <si>
     <t>Кирилл</t>
@@ -940,10 +937,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1007,37 +1004,37 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="B10" s="1"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B12" s="1"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="B13" s="1"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="B14" s="1"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="B15" s="1"/>
     </row>
@@ -1049,13 +1046,13 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="B17" s="1"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="B18" s="1"/>
     </row>
@@ -1067,13 +1064,13 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="B20" s="1"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="B21" s="1"/>
     </row>
@@ -1097,13 +1094,13 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="B25" s="1"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="B26" s="1"/>
     </row>
@@ -1121,39 +1118,33 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="B29" s="1"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="B30" s="1"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="B31" s="1"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B32" s="1"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="B33" s="1"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1175,172 +1166,172 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1360,497 +1351,497 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -1862,7 +1853,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED3B79BE-20B7-4522-B2CF-FD425C0E0EA6}">
   <dimension ref="A1:A27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
@@ -1870,137 +1861,137 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
